--- a/models/DENTRO.xlsx
+++ b/models/DENTRO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes_documents\a_ABSys\DIGITAF\WP2farmers\task2.2_treecropperformance\DigitAFtreeAdvice\Rdatapreparation\alldatabases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes_documents\a_ABSys\DIGITAF\WP2farmers\task2.2_treecropperformance\DigitAFtreeAdvice\agroforestreeadvice\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18696" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18882" uniqueCount="963">
   <si>
     <t>English.name</t>
   </si>
@@ -1619,9 +1619,6 @@
     <t>Animal-edible fruits</t>
   </si>
   <si>
-    <t>ask dutch translation</t>
-  </si>
-  <si>
     <t>Animaux</t>
   </si>
   <si>
@@ -1631,9 +1628,6 @@
     <t>Fruits comestibles pour les animaux (pas tous)</t>
   </si>
   <si>
-    <t>ask German translation</t>
-  </si>
-  <si>
     <t>Chevaux</t>
   </si>
   <si>
@@ -2061,6 +2055,894 @@
   </si>
   <si>
     <t>Maladies</t>
+  </si>
+  <si>
+    <t>Zvířata</t>
+  </si>
+  <si>
+    <t>Biomasa</t>
+  </si>
+  <si>
+    <t>Dřevo</t>
+  </si>
+  <si>
+    <t>Ovoce a ořechy</t>
+  </si>
+  <si>
+    <t>Biodiverzita</t>
+  </si>
+  <si>
+    <t>Větrný štít</t>
+  </si>
+  <si>
+    <t>Stín</t>
+  </si>
+  <si>
+    <t>Úrodnost půdy</t>
+  </si>
+  <si>
+    <t>Půda</t>
+  </si>
+  <si>
+    <t>Klima</t>
+  </si>
+  <si>
+    <t>Biotické prostředí</t>
+  </si>
+  <si>
+    <t>BigCriteria_cz</t>
+  </si>
+  <si>
+    <t>criteria_cz</t>
+  </si>
+  <si>
+    <t>choice_cz</t>
+  </si>
+  <si>
+    <t>zvířata</t>
+  </si>
+  <si>
+    <t>rychlost růstu</t>
+  </si>
+  <si>
+    <t>kopírovatelné</t>
+  </si>
+  <si>
+    <t>kvalita dřeva</t>
+  </si>
+  <si>
+    <t>jedléovoce</t>
+  </si>
+  <si>
+    <t>časování plodů</t>
+  </si>
+  <si>
+    <t>plodnost</t>
+  </si>
+  <si>
+    <t>původní</t>
+  </si>
+  <si>
+    <t>nativní</t>
+  </si>
+  <si>
+    <t>ptáci</t>
+  </si>
+  <si>
+    <t>větrolam</t>
+  </si>
+  <si>
+    <t>šířka koruny</t>
+  </si>
+  <si>
+    <t>hustota koruny</t>
+  </si>
+  <si>
+    <t>Nfixace</t>
+  </si>
+  <si>
+    <t>Půdní úrodnost</t>
+  </si>
+  <si>
+    <t>Vzor zakořenění</t>
+  </si>
+  <si>
+    <t>Způsob zakořenění</t>
+  </si>
+  <si>
+    <t>Tvar koruny</t>
+  </si>
+  <si>
+    <t>Jedovaté.části rostliny</t>
+  </si>
+  <si>
+    <t>Dostupnost sadebního materiálu</t>
+  </si>
+  <si>
+    <t>Poznámky.a.zvláštní.případy</t>
+  </si>
+  <si>
+    <t>Textura</t>
+  </si>
+  <si>
+    <t>Vlhkost</t>
+  </si>
+  <si>
+    <t>zhutnění</t>
+  </si>
+  <si>
+    <t>Sucho</t>
+  </si>
+  <si>
+    <t>Záplavy</t>
+  </si>
+  <si>
+    <t>Úroveň slunečního svitu</t>
+  </si>
+  <si>
+    <t>Silný vítr</t>
+  </si>
+  <si>
+    <t>Slaný mořský vánek</t>
+  </si>
+  <si>
+    <t>Odpor větru</t>
+  </si>
+  <si>
+    <t>Teplo</t>
+  </si>
+  <si>
+    <t>Časný podzimní mráz</t>
+  </si>
+  <si>
+    <t>Extrémní mrazy v zimě (&lt;-15 °C)</t>
+  </si>
+  <si>
+    <t>Pozdní jarní mráz</t>
+  </si>
+  <si>
+    <t>Pastevci</t>
+  </si>
+  <si>
+    <t>Nemoci</t>
+  </si>
+  <si>
+    <t>Plody jedlé pro zvířata</t>
+  </si>
+  <si>
+    <t>Koně</t>
+  </si>
+  <si>
+    <t>Ovce</t>
+  </si>
+  <si>
+    <t>Skot</t>
+  </si>
+  <si>
+    <t>Rychlost růstu</t>
+  </si>
+  <si>
+    <t>Kvalita dřeva</t>
+  </si>
+  <si>
+    <t>Jedlost plodů</t>
+  </si>
+  <si>
+    <t>Velmi.krátkodobé (1-3 roky)</t>
+  </si>
+  <si>
+    <t>Krátkodobé (3-8 let)</t>
+  </si>
+  <si>
+    <t>Dlouhodobé (&gt;8 let)</t>
+  </si>
+  <si>
+    <t>Původní.nebo.archeofyt</t>
+  </si>
+  <si>
+    <t>Exotický,.ale.dobře.zavedený.nebo.neinvazní</t>
+  </si>
+  <si>
+    <t>Riziko.invazivity</t>
+  </si>
+  <si>
+    <t>Atraktivní.pro.opylovače</t>
+  </si>
+  <si>
+    <t>Ptáci</t>
+  </si>
+  <si>
+    <t>3.až 5m</t>
+  </si>
+  <si>
+    <t>5.až 10m</t>
+  </si>
+  <si>
+    <t>Hustý (hodně stínu)</t>
+  </si>
+  <si>
+    <t>Napůl otevřené</t>
+  </si>
+  <si>
+    <t>Otevřená (průsvitná)</t>
+  </si>
+  <si>
+    <t>Časné.nebo.pozdní.rašení</t>
+  </si>
+  <si>
+    <t>N-fixátor</t>
+  </si>
+  <si>
+    <t>Podporuje.úrodnost.půdy</t>
+  </si>
+  <si>
+    <t>'mělké''.zakořenění</t>
+  </si>
+  <si>
+    <t>Hluboké''.zakořenění</t>
+  </si>
+  <si>
+    <t>Sloupovitá, V-úhelníková, pyramidální nebo oválná koruna</t>
+  </si>
+  <si>
+    <t>Kulatá koruna</t>
+  </si>
+  <si>
+    <t>Vázovitá koruna</t>
+  </si>
+  <si>
+    <t>Jedovaté.části.rostliny</t>
+  </si>
+  <si>
+    <t>Dostupnost.sadebního.materiálu</t>
+  </si>
+  <si>
+    <t>Hlína</t>
+  </si>
+  <si>
+    <t>Písčitá.hlína</t>
+  </si>
+  <si>
+    <t>Hlinitý písek</t>
+  </si>
+  <si>
+    <t>Písek</t>
+  </si>
+  <si>
+    <t>Mokrý</t>
+  </si>
+  <si>
+    <t>Vlhký</t>
+  </si>
+  <si>
+    <t>Suchý</t>
+  </si>
+  <si>
+    <t>Kyselý (pH.&lt;.5)</t>
+  </si>
+  <si>
+    <t>Neutrální.(.5,5.&lt;.pH.&lt;.7,5)</t>
+  </si>
+  <si>
+    <t>Vápenaté (pH.&gt;.7,5)</t>
+  </si>
+  <si>
+    <t>Zhutněný</t>
+  </si>
+  <si>
+    <t>Suché</t>
+  </si>
+  <si>
+    <t>Povodně</t>
+  </si>
+  <si>
+    <t>Nízké</t>
+  </si>
+  <si>
+    <t>Neutrální</t>
+  </si>
+  <si>
+    <t>Vysoká</t>
+  </si>
+  <si>
+    <t>Silný.vítr</t>
+  </si>
+  <si>
+    <t>Slaný.mořský.vánek</t>
+  </si>
+  <si>
+    <t>Časný.podzimní.mráz</t>
+  </si>
+  <si>
+    <t>Extrémní.mrazy.v.zimě.(&lt;.-.15°C)</t>
+  </si>
+  <si>
+    <t>Pozdní.jarní.mráz</t>
+  </si>
+  <si>
+    <t>Volně žijící pastevci</t>
+  </si>
+  <si>
+    <t>Dierlijk eetbaar fruit</t>
+  </si>
+  <si>
+    <t>Paarden</t>
+  </si>
+  <si>
+    <t>Schapen</t>
+  </si>
+  <si>
+    <t>Runderen</t>
+  </si>
+  <si>
+    <t>Groeisnelheid</t>
+  </si>
+  <si>
+    <t>Houtkwaliteit</t>
+  </si>
+  <si>
+    <t>Eetbaarheid van vruchten</t>
+  </si>
+  <si>
+    <t>Zeer.korte-term.(1-3.jr)</t>
+  </si>
+  <si>
+    <t>Korte termijn.(3-8.jr)</t>
+  </si>
+  <si>
+    <t>Lange termijn (&gt;8.jr)</t>
+  </si>
+  <si>
+    <t>Inheems.of.archeofyt</t>
+  </si>
+  <si>
+    <t>Exotisch,.maar.goed.ingeburgerd.of.niet-invasief</t>
+  </si>
+  <si>
+    <t>Risico.op.invasiviteit</t>
+  </si>
+  <si>
+    <t>Aantrekkelijk.voor.bestuivers</t>
+  </si>
+  <si>
+    <t>Vogels</t>
+  </si>
+  <si>
+    <t>Windbreker</t>
+  </si>
+  <si>
+    <t>3.tot.5m</t>
+  </si>
+  <si>
+    <t>5.tot.10m</t>
+  </si>
+  <si>
+    <t>Dicht.(veel.schaduw)</t>
+  </si>
+  <si>
+    <t>Open (doorschijnend)</t>
+  </si>
+  <si>
+    <t>Vroege.of.late.knopzetting</t>
+  </si>
+  <si>
+    <t>N-fixeerder</t>
+  </si>
+  <si>
+    <t>Bevordert.bodemvruchtbaarheid</t>
+  </si>
+  <si>
+    <t>Ondiepe''.beworteling</t>
+  </si>
+  <si>
+    <t>Diepe''.beworteling</t>
+  </si>
+  <si>
+    <t>Zuilvormige, V-vormige, piramidale of ovale.kroon</t>
+  </si>
+  <si>
+    <t>Ronde.kroon</t>
+  </si>
+  <si>
+    <t>Vaasvormige.kroon</t>
+  </si>
+  <si>
+    <t>Giftige.plantendelen</t>
+  </si>
+  <si>
+    <t>Beschikbaarheid.plantmateriaal</t>
+  </si>
+  <si>
+    <t>Opmerkingen.en.speciale.gevallen</t>
+  </si>
+  <si>
+    <t>Klei</t>
+  </si>
+  <si>
+    <t>Leem</t>
+  </si>
+  <si>
+    <t>Zandige.leem</t>
+  </si>
+  <si>
+    <t>Leemhoudend.zand</t>
+  </si>
+  <si>
+    <t>Zand</t>
+  </si>
+  <si>
+    <t>Nat</t>
+  </si>
+  <si>
+    <t>Vochtig</t>
+  </si>
+  <si>
+    <t>Droog</t>
+  </si>
+  <si>
+    <t>Zuur.(pH.&lt;.5)</t>
+  </si>
+  <si>
+    <t>Neutraal.(.5,5.&lt;.pH.&lt;.7,5)</t>
+  </si>
+  <si>
+    <t>Kalkhoudend.(pH.&gt;.7,5)</t>
+  </si>
+  <si>
+    <t>Verdicht</t>
+  </si>
+  <si>
+    <t>Droogte</t>
+  </si>
+  <si>
+    <t>Overstromingen</t>
+  </si>
+  <si>
+    <t>Laag</t>
+  </si>
+  <si>
+    <t>Neutraal</t>
+  </si>
+  <si>
+    <t>Hoog</t>
+  </si>
+  <si>
+    <t>Sterke.wind</t>
+  </si>
+  <si>
+    <t>Zilte.zeewind</t>
+  </si>
+  <si>
+    <t>Wind.weerstand</t>
+  </si>
+  <si>
+    <t>Warmte</t>
+  </si>
+  <si>
+    <t>Vroege.herfst.vorst</t>
+  </si>
+  <si>
+    <t>Extreme.vorst.in.de.winter.(&lt;.-.15°C)</t>
+  </si>
+  <si>
+    <t>Late.voorjaars.vorst</t>
+  </si>
+  <si>
+    <t>Wilde.grazers</t>
+  </si>
+  <si>
+    <t>Ziekten</t>
+  </si>
+  <si>
+    <t>Tierisch genießbare Früchte</t>
+  </si>
+  <si>
+    <t>Pferde</t>
+  </si>
+  <si>
+    <t>Schafe</t>
+  </si>
+  <si>
+    <t>Rinder</t>
+  </si>
+  <si>
+    <t>Wachstumsgeschwindigkeit</t>
+  </si>
+  <si>
+    <t>Holzqualität</t>
+  </si>
+  <si>
+    <t>Genießbarkeit von Früchten</t>
+  </si>
+  <si>
+    <t>Sehr.kurzfristig.(1-3.Jh.)</t>
+  </si>
+  <si>
+    <t>Kurzfristig.(3-8.J.)</t>
+  </si>
+  <si>
+    <t>Langfristig.(&gt;8.J.)</t>
+  </si>
+  <si>
+    <t>Einheimisch.oder.Archäophyt</t>
+  </si>
+  <si>
+    <t>Exotisch,.aber.gut.etabliert.oder.nichtinvasiv</t>
+  </si>
+  <si>
+    <t>Risiko.der.Invasivität</t>
+  </si>
+  <si>
+    <t>Attraktiv.für.Bestäuber</t>
+  </si>
+  <si>
+    <t>Vögel</t>
+  </si>
+  <si>
+    <t>Windschutz</t>
+  </si>
+  <si>
+    <t>3.bis.5m</t>
+  </si>
+  <si>
+    <t>5.bis.10m</t>
+  </si>
+  <si>
+    <t>Dicht.(viel.Schatten)</t>
+  </si>
+  <si>
+    <t>Halb.offen</t>
+  </si>
+  <si>
+    <t>Offen.(durchscheinend)</t>
+  </si>
+  <si>
+    <t>Früher.oder.später.Austrieb</t>
+  </si>
+  <si>
+    <t>N-Fixierer</t>
+  </si>
+  <si>
+    <t>Fördert.die.Bodenfruchtbarkeit</t>
+  </si>
+  <si>
+    <t>Flache''.Bewurzelung</t>
+  </si>
+  <si>
+    <t>Tiefwurzelnd</t>
+  </si>
+  <si>
+    <t>Säulenförmige,.V-förmige,.pyramidenförmige,.oder.ovale.Krone</t>
+  </si>
+  <si>
+    <t>Runde.Krone</t>
+  </si>
+  <si>
+    <t>Vasenförmige.Krone</t>
+  </si>
+  <si>
+    <t>Giftige.Pflanzenteile</t>
+  </si>
+  <si>
+    <t>Verfügbarkeit.von.Pflanzmaterial</t>
+  </si>
+  <si>
+    <t>Anmerkungen.und.besondere.Fälle</t>
+  </si>
+  <si>
+    <t>Lehm</t>
+  </si>
+  <si>
+    <t>Sandiger.Lehm</t>
+  </si>
+  <si>
+    <t>Lehmiger.Sand</t>
+  </si>
+  <si>
+    <t>Nass</t>
+  </si>
+  <si>
+    <t>feucht</t>
+  </si>
+  <si>
+    <t>Trocken</t>
+  </si>
+  <si>
+    <t>Sauer.(pH.&lt;.5)</t>
+  </si>
+  <si>
+    <t>Neutral (.5,5.&lt;.pH.&lt;.7,5)</t>
+  </si>
+  <si>
+    <t>kalkhaltig.(pH.&gt;.7,5)</t>
+  </si>
+  <si>
+    <t>Verdichtet</t>
+  </si>
+  <si>
+    <t>Trockenheit</t>
+  </si>
+  <si>
+    <t>Überschwemmungen</t>
+  </si>
+  <si>
+    <t>Niedrig</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Starker.Wind</t>
+  </si>
+  <si>
+    <t>Salzige.Meeresbrise</t>
+  </si>
+  <si>
+    <t>Wind.widerstand</t>
+  </si>
+  <si>
+    <t>Hitze</t>
+  </si>
+  <si>
+    <t>Frühherbstlicher.Frost</t>
+  </si>
+  <si>
+    <t>Extremer.Gefrierpunkt.im.Winter.(&lt;.-.15°C)</t>
+  </si>
+  <si>
+    <t>Später.Frühlingsfrost</t>
+  </si>
+  <si>
+    <t>Wilde Weidetiere</t>
+  </si>
+  <si>
+    <t>Krankheiten</t>
+  </si>
+  <si>
+    <t>Niederwald mit Kurzumtrieb</t>
+  </si>
+  <si>
+    <t>hakhout met korte omlooptijd</t>
+  </si>
+  <si>
+    <t>Tiere</t>
+  </si>
+  <si>
+    <t>pflanzbar</t>
+  </si>
+  <si>
+    <t>essbare FrüchteNüsse</t>
+  </si>
+  <si>
+    <t>Fruchtzeit</t>
+  </si>
+  <si>
+    <t>fruchttragend</t>
+  </si>
+  <si>
+    <t>einheimisch</t>
+  </si>
+  <si>
+    <t>Polinatoren</t>
+  </si>
+  <si>
+    <t>Kronenbreite</t>
+  </si>
+  <si>
+    <t>Scheitelbreite</t>
+  </si>
+  <si>
+    <t>Kronendichte</t>
+  </si>
+  <si>
+    <t>frühe Knospenzeit</t>
+  </si>
+  <si>
+    <t>NFixierung</t>
+  </si>
+  <si>
+    <t>BodenFertilität</t>
+  </si>
+  <si>
+    <t>Bewurzelungsmuster</t>
+  </si>
+  <si>
+    <t>Kronenform</t>
+  </si>
+  <si>
+    <t>Giftige.Pflanzen.teile</t>
+  </si>
+  <si>
+    <t>Verfügbarkeit.von.Pflanzgut</t>
+  </si>
+  <si>
+    <t>Beschaffenheit</t>
+  </si>
+  <si>
+    <t>Textur</t>
+  </si>
+  <si>
+    <t>Luftfeuchtigkeit</t>
+  </si>
+  <si>
+    <t>pH-Wert</t>
+  </si>
+  <si>
+    <t>Verdichtung</t>
+  </si>
+  <si>
+    <t>Sonnenscheindauer</t>
+  </si>
+  <si>
+    <t>Starker Wind</t>
+  </si>
+  <si>
+    <t>Salzige Meeresbrise</t>
+  </si>
+  <si>
+    <t>Windwiderstand</t>
+  </si>
+  <si>
+    <t>Frühherbstlicher Frost</t>
+  </si>
+  <si>
+    <t>Extreme Fröste im Winter (&lt;-15°C)</t>
+  </si>
+  <si>
+    <t>Spätfrost im Frühjahr</t>
+  </si>
+  <si>
+    <t>Weidegänger</t>
+  </si>
+  <si>
+    <t>dieren</t>
+  </si>
+  <si>
+    <t>groeisnelheid</t>
+  </si>
+  <si>
+    <t>hakhout</t>
+  </si>
+  <si>
+    <t>houtkwaliteit</t>
+  </si>
+  <si>
+    <t>eetbare vruchtennoten</t>
+  </si>
+  <si>
+    <t>vruchtdracht</t>
+  </si>
+  <si>
+    <t>inheems</t>
+  </si>
+  <si>
+    <t>ijsvogels</t>
+  </si>
+  <si>
+    <t>vogels</t>
+  </si>
+  <si>
+    <t>windscherm</t>
+  </si>
+  <si>
+    <t>kroonbreedte</t>
+  </si>
+  <si>
+    <t>kroondichtheid</t>
+  </si>
+  <si>
+    <t>kronendichtheid</t>
+  </si>
+  <si>
+    <t>vroeggeboorte</t>
+  </si>
+  <si>
+    <t>Nfixatie</t>
+  </si>
+  <si>
+    <t>Bodemvruchtbaarheid</t>
+  </si>
+  <si>
+    <t>Bewortelingspatroon</t>
+  </si>
+  <si>
+    <t>Wortelpatroon</t>
+  </si>
+  <si>
+    <t>Kroonvorm</t>
+  </si>
+  <si>
+    <t>Beschikbaarheid.plantgoed</t>
+  </si>
+  <si>
+    <t>Textuur</t>
+  </si>
+  <si>
+    <t>Vochtigheid</t>
+  </si>
+  <si>
+    <t>verdichting</t>
+  </si>
+  <si>
+    <t>Aantal uren zonneschijn</t>
+  </si>
+  <si>
+    <t>Sterke wind</t>
+  </si>
+  <si>
+    <t>Zilte zeebries</t>
+  </si>
+  <si>
+    <t>Weerstand tegen wind</t>
+  </si>
+  <si>
+    <t>Vroege herfstvorst</t>
+  </si>
+  <si>
+    <t>Extreme vorst in de winter (&lt;-15°C)</t>
+  </si>
+  <si>
+    <t>Late voorjaarsvorst</t>
+  </si>
+  <si>
+    <t>Dieren</t>
+  </si>
+  <si>
+    <t>Biomassa</t>
+  </si>
+  <si>
+    <t>Hout</t>
+  </si>
+  <si>
+    <t>Fruit en noten</t>
+  </si>
+  <si>
+    <t>Biodiversiteit</t>
+  </si>
+  <si>
+    <t>Windscherm</t>
+  </si>
+  <si>
+    <t>Schaduw</t>
+  </si>
+  <si>
+    <t>Bodem</t>
+  </si>
+  <si>
+    <t>Grond</t>
+  </si>
+  <si>
+    <t>Klimaat</t>
+  </si>
+  <si>
+    <t>Biotisch milieu</t>
+  </si>
+  <si>
+    <t>Holz</t>
+  </si>
+  <si>
+    <t>Früchte und Nüsse</t>
+  </si>
+  <si>
+    <t>Artenvielfalt</t>
+  </si>
+  <si>
+    <t>Schatten</t>
+  </si>
+  <si>
+    <t>Farbton</t>
+  </si>
+  <si>
+    <t>Bodenfruchtbarkeit</t>
+  </si>
+  <si>
+    <t>Fruchtbarkeit des Bodens</t>
+  </si>
+  <si>
+    <t>Boden</t>
+  </si>
+  <si>
+    <t>Biotische Umwelt</t>
   </si>
 </sst>
 </file>
@@ -73007,9 +73889,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -73021,17 +73905,10 @@
     <col min="6" max="6" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>497</v>
       </c>
@@ -73092,8 +73969,17 @@
       <c r="T1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>678</v>
+      </c>
+      <c r="V1" t="s">
+        <v>679</v>
+      </c>
+      <c r="W1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>40</v>
       </c>
@@ -73128,34 +74014,43 @@
         <v>520</v>
       </c>
       <c r="L2" t="s">
+        <v>943</v>
+      </c>
+      <c r="M2" t="s">
+        <v>913</v>
+      </c>
+      <c r="N2" t="s">
+        <v>769</v>
+      </c>
+      <c r="O2" t="s">
         <v>521</v>
       </c>
-      <c r="M2" t="s">
-        <v>521</v>
-      </c>
-      <c r="N2" t="s">
-        <v>521</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>522</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>523</v>
       </c>
-      <c r="Q2" t="s">
-        <v>524</v>
-      </c>
       <c r="R2" t="s">
-        <v>525</v>
+        <v>883</v>
       </c>
       <c r="S2" t="s">
-        <v>204</v>
+        <v>883</v>
       </c>
       <c r="T2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+      <c r="U2" t="s">
+        <v>667</v>
+      </c>
+      <c r="V2" t="s">
+        <v>681</v>
+      </c>
+      <c r="W2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>41</v>
       </c>
@@ -73190,34 +74085,43 @@
         <v>200</v>
       </c>
       <c r="L3" t="s">
+        <v>943</v>
+      </c>
+      <c r="M3" t="s">
+        <v>913</v>
+      </c>
+      <c r="N3" t="s">
+        <v>770</v>
+      </c>
+      <c r="O3" t="s">
         <v>521</v>
       </c>
-      <c r="M3" t="s">
-        <v>521</v>
-      </c>
-      <c r="N3" t="s">
-        <v>521</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>522</v>
       </c>
-      <c r="P3" t="s">
-        <v>523</v>
-      </c>
       <c r="Q3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="R3" t="s">
-        <v>525</v>
+        <v>883</v>
       </c>
       <c r="S3" t="s">
-        <v>204</v>
+        <v>883</v>
       </c>
       <c r="T3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+      <c r="U3" t="s">
+        <v>667</v>
+      </c>
+      <c r="V3" t="s">
+        <v>681</v>
+      </c>
+      <c r="W3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>42</v>
       </c>
@@ -73252,34 +74156,43 @@
         <v>201</v>
       </c>
       <c r="L4" t="s">
+        <v>943</v>
+      </c>
+      <c r="M4" t="s">
+        <v>913</v>
+      </c>
+      <c r="N4" t="s">
+        <v>771</v>
+      </c>
+      <c r="O4" t="s">
         <v>521</v>
       </c>
-      <c r="M4" t="s">
-        <v>521</v>
-      </c>
-      <c r="N4" t="s">
-        <v>521</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>522</v>
       </c>
-      <c r="P4" t="s">
-        <v>523</v>
-      </c>
       <c r="Q4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="R4" t="s">
-        <v>525</v>
+        <v>883</v>
       </c>
       <c r="S4" t="s">
-        <v>204</v>
+        <v>883</v>
       </c>
       <c r="T4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+      <c r="U4" t="s">
+        <v>667</v>
+      </c>
+      <c r="V4" t="s">
+        <v>681</v>
+      </c>
+      <c r="W4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>43</v>
       </c>
@@ -73314,34 +74227,43 @@
         <v>202</v>
       </c>
       <c r="L5" t="s">
+        <v>943</v>
+      </c>
+      <c r="M5" t="s">
+        <v>913</v>
+      </c>
+      <c r="N5" t="s">
+        <v>772</v>
+      </c>
+      <c r="O5" t="s">
         <v>521</v>
       </c>
-      <c r="M5" t="s">
-        <v>521</v>
-      </c>
-      <c r="N5" t="s">
-        <v>521</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>522</v>
       </c>
-      <c r="P5" t="s">
-        <v>523</v>
-      </c>
       <c r="Q5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="R5" t="s">
-        <v>525</v>
+        <v>883</v>
       </c>
       <c r="S5" t="s">
-        <v>204</v>
+        <v>883</v>
       </c>
       <c r="T5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>829</v>
+      </c>
+      <c r="U5" t="s">
+        <v>667</v>
+      </c>
+      <c r="V5" t="s">
+        <v>681</v>
+      </c>
+      <c r="W5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>49</v>
       </c>
@@ -73352,58 +74274,67 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F6" t="s">
         <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H6" t="s">
         <v>204</v>
       </c>
       <c r="I6" t="s">
+        <v>530</v>
+      </c>
+      <c r="J6" t="s">
+        <v>528</v>
+      </c>
+      <c r="K6" t="s">
+        <v>531</v>
+      </c>
+      <c r="L6" t="s">
+        <v>944</v>
+      </c>
+      <c r="M6" t="s">
+        <v>914</v>
+      </c>
+      <c r="N6" t="s">
+        <v>773</v>
+      </c>
+      <c r="O6" t="s">
         <v>532</v>
       </c>
-      <c r="J6" t="s">
-        <v>530</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="P6" t="s">
         <v>533</v>
       </c>
-      <c r="L6" t="s">
-        <v>521</v>
-      </c>
-      <c r="M6" t="s">
-        <v>521</v>
-      </c>
-      <c r="N6" t="s">
-        <v>521</v>
-      </c>
-      <c r="O6" t="s">
-        <v>534</v>
-      </c>
-      <c r="P6" t="s">
-        <v>535</v>
-      </c>
       <c r="Q6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="R6" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="S6" t="s">
-        <v>525</v>
+        <v>830</v>
       </c>
       <c r="T6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+      <c r="U6" t="s">
+        <v>668</v>
+      </c>
+      <c r="V6" t="s">
+        <v>682</v>
+      </c>
+      <c r="W6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>51</v>
       </c>
@@ -73414,58 +74345,67 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F7" t="s">
         <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H7" t="s">
         <v>204</v>
       </c>
       <c r="I7" t="s">
+        <v>530</v>
+      </c>
+      <c r="J7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L7" t="s">
+        <v>944</v>
+      </c>
+      <c r="M7" t="s">
+        <v>915</v>
+      </c>
+      <c r="N7" t="s">
+        <v>882</v>
+      </c>
+      <c r="O7" t="s">
         <v>532</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P7" t="s">
         <v>536</v>
       </c>
-      <c r="K7" t="s">
-        <v>537</v>
-      </c>
-      <c r="L7" t="s">
-        <v>521</v>
-      </c>
-      <c r="M7" t="s">
-        <v>521</v>
-      </c>
-      <c r="N7" t="s">
-        <v>521</v>
-      </c>
-      <c r="O7" t="s">
-        <v>534</v>
-      </c>
-      <c r="P7" t="s">
-        <v>538</v>
-      </c>
       <c r="Q7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="R7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="S7" t="s">
-        <v>525</v>
+        <v>884</v>
       </c>
       <c r="T7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+      <c r="U7" t="s">
+        <v>668</v>
+      </c>
+      <c r="V7" t="s">
+        <v>683</v>
+      </c>
+      <c r="W7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -73476,58 +74416,67 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F8" t="s">
         <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H8" t="s">
         <v>204</v>
       </c>
       <c r="I8" t="s">
+        <v>539</v>
+      </c>
+      <c r="J8" t="s">
+        <v>538</v>
+      </c>
+      <c r="K8" t="s">
+        <v>540</v>
+      </c>
+      <c r="L8" t="s">
+        <v>945</v>
+      </c>
+      <c r="M8" t="s">
+        <v>916</v>
+      </c>
+      <c r="N8" t="s">
+        <v>774</v>
+      </c>
+      <c r="O8" t="s">
         <v>541</v>
       </c>
-      <c r="J8" t="s">
-        <v>540</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="P8" t="s">
         <v>542</v>
       </c>
-      <c r="L8" t="s">
-        <v>521</v>
-      </c>
-      <c r="M8" t="s">
-        <v>521</v>
-      </c>
-      <c r="N8" t="s">
-        <v>521</v>
-      </c>
-      <c r="O8" t="s">
-        <v>543</v>
-      </c>
-      <c r="P8" t="s">
-        <v>544</v>
-      </c>
       <c r="Q8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="R8" t="s">
-        <v>525</v>
+        <v>954</v>
       </c>
       <c r="S8" t="s">
-        <v>525</v>
+        <v>831</v>
       </c>
       <c r="T8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+      <c r="U8" t="s">
+        <v>669</v>
+      </c>
+      <c r="V8" t="s">
+        <v>684</v>
+      </c>
+      <c r="W8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>52</v>
       </c>
@@ -73538,58 +74487,67 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F9" t="s">
         <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H9" t="s">
         <v>204</v>
       </c>
       <c r="I9" t="s">
+        <v>545</v>
+      </c>
+      <c r="J9" t="s">
+        <v>544</v>
+      </c>
+      <c r="K9" t="s">
+        <v>546</v>
+      </c>
+      <c r="L9" t="s">
+        <v>946</v>
+      </c>
+      <c r="M9" t="s">
+        <v>917</v>
+      </c>
+      <c r="N9" t="s">
+        <v>775</v>
+      </c>
+      <c r="O9" t="s">
         <v>547</v>
       </c>
-      <c r="J9" t="s">
-        <v>546</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="P9" t="s">
         <v>548</v>
       </c>
-      <c r="L9" t="s">
-        <v>521</v>
-      </c>
-      <c r="M9" t="s">
-        <v>521</v>
-      </c>
-      <c r="N9" t="s">
-        <v>521</v>
-      </c>
-      <c r="O9" t="s">
-        <v>549</v>
-      </c>
-      <c r="P9" t="s">
-        <v>550</v>
-      </c>
       <c r="Q9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="R9" t="s">
-        <v>525</v>
+        <v>955</v>
       </c>
       <c r="S9" t="s">
-        <v>525</v>
+        <v>885</v>
       </c>
       <c r="T9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+      <c r="U9" t="s">
+        <v>670</v>
+      </c>
+      <c r="V9" t="s">
+        <v>685</v>
+      </c>
+      <c r="W9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>53</v>
       </c>
@@ -73600,58 +74558,67 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F10" t="s">
         <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H10" t="s">
         <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K10" t="s">
         <v>215</v>
       </c>
       <c r="L10" t="s">
-        <v>521</v>
+        <v>946</v>
       </c>
       <c r="M10" t="s">
-        <v>521</v>
+        <v>918</v>
       </c>
       <c r="N10" t="s">
-        <v>521</v>
+        <v>776</v>
       </c>
       <c r="O10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="R10" t="s">
-        <v>525</v>
+        <v>955</v>
       </c>
       <c r="S10" t="s">
-        <v>525</v>
+        <v>886</v>
       </c>
       <c r="T10" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>833</v>
+      </c>
+      <c r="U10" t="s">
+        <v>670</v>
+      </c>
+      <c r="V10" t="s">
+        <v>686</v>
+      </c>
+      <c r="W10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>54</v>
       </c>
@@ -73662,58 +74629,67 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F11" t="s">
         <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H11" t="s">
         <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K11" t="s">
         <v>216</v>
       </c>
       <c r="L11" t="s">
-        <v>521</v>
+        <v>946</v>
       </c>
       <c r="M11" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="N11" t="s">
-        <v>521</v>
+        <v>777</v>
       </c>
       <c r="O11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P11" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q11" t="s">
         <v>553</v>
       </c>
-      <c r="Q11" t="s">
-        <v>555</v>
-      </c>
       <c r="R11" t="s">
-        <v>525</v>
+        <v>955</v>
       </c>
       <c r="S11" t="s">
-        <v>525</v>
+        <v>887</v>
       </c>
       <c r="T11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+      <c r="U11" t="s">
+        <v>670</v>
+      </c>
+      <c r="V11" t="s">
+        <v>687</v>
+      </c>
+      <c r="W11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>55</v>
       </c>
@@ -73724,58 +74700,67 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F12" t="s">
         <v>217</v>
       </c>
       <c r="G12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H12" t="s">
         <v>204</v>
       </c>
       <c r="I12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K12" t="s">
         <v>217</v>
       </c>
       <c r="L12" t="s">
-        <v>521</v>
+        <v>946</v>
       </c>
       <c r="M12" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="N12" t="s">
-        <v>521</v>
+        <v>778</v>
       </c>
       <c r="O12" t="s">
+        <v>547</v>
+      </c>
+      <c r="P12" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>554</v>
+      </c>
+      <c r="R12" t="s">
+        <v>955</v>
+      </c>
+      <c r="S12" t="s">
+        <v>887</v>
+      </c>
+      <c r="T12" t="s">
+        <v>835</v>
+      </c>
+      <c r="U12" t="s">
+        <v>670</v>
+      </c>
+      <c r="V12" t="s">
         <v>549</v>
       </c>
-      <c r="P12" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>556</v>
-      </c>
-      <c r="R12" t="s">
-        <v>525</v>
-      </c>
-      <c r="S12" t="s">
-        <v>525</v>
-      </c>
-      <c r="T12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W12" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>46</v>
       </c>
@@ -73786,58 +74771,67 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F13" t="s">
         <v>207</v>
       </c>
       <c r="G13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H13" t="s">
         <v>204</v>
       </c>
       <c r="I13" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K13" t="s">
         <v>207</v>
       </c>
       <c r="L13" t="s">
-        <v>521</v>
+        <v>947</v>
       </c>
       <c r="M13" t="s">
-        <v>521</v>
+        <v>919</v>
       </c>
       <c r="N13" t="s">
-        <v>521</v>
+        <v>779</v>
       </c>
       <c r="O13" t="s">
+        <v>558</v>
+      </c>
+      <c r="P13" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q13" t="s">
         <v>560</v>
       </c>
-      <c r="P13" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>562</v>
-      </c>
       <c r="R13" t="s">
-        <v>525</v>
+        <v>956</v>
       </c>
       <c r="S13" t="s">
-        <v>525</v>
+        <v>888</v>
       </c>
       <c r="T13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>836</v>
+      </c>
+      <c r="U13" t="s">
+        <v>671</v>
+      </c>
+      <c r="V13" t="s">
+        <v>688</v>
+      </c>
+      <c r="W13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>47</v>
       </c>
@@ -73848,58 +74842,67 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F14" t="s">
         <v>208</v>
       </c>
       <c r="G14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H14" t="s">
         <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K14" t="s">
         <v>208</v>
       </c>
       <c r="L14" t="s">
-        <v>521</v>
+        <v>947</v>
       </c>
       <c r="M14" t="s">
-        <v>521</v>
+        <v>919</v>
       </c>
       <c r="N14" t="s">
-        <v>521</v>
+        <v>780</v>
       </c>
       <c r="O14" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P14" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q14" t="s">
         <v>561</v>
       </c>
-      <c r="Q14" t="s">
-        <v>563</v>
-      </c>
       <c r="R14" t="s">
-        <v>525</v>
+        <v>956</v>
       </c>
       <c r="S14" t="s">
-        <v>525</v>
+        <v>888</v>
       </c>
       <c r="T14" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>837</v>
+      </c>
+      <c r="U14" t="s">
+        <v>671</v>
+      </c>
+      <c r="V14" t="s">
+        <v>689</v>
+      </c>
+      <c r="W14" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>48</v>
       </c>
@@ -73910,58 +74913,67 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F15" t="s">
         <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H15" t="s">
         <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J15" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K15" t="s">
         <v>209</v>
       </c>
       <c r="L15" t="s">
-        <v>521</v>
+        <v>947</v>
       </c>
       <c r="M15" t="s">
-        <v>521</v>
+        <v>919</v>
       </c>
       <c r="N15" t="s">
-        <v>521</v>
+        <v>781</v>
       </c>
       <c r="O15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P15" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Q15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="R15" t="s">
-        <v>525</v>
+        <v>956</v>
       </c>
       <c r="S15" t="s">
-        <v>525</v>
+        <v>888</v>
       </c>
       <c r="T15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>838</v>
+      </c>
+      <c r="U15" t="s">
+        <v>671</v>
+      </c>
+      <c r="V15" t="s">
+        <v>689</v>
+      </c>
+      <c r="W15" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>56</v>
       </c>
@@ -73972,58 +74984,67 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F16" t="s">
         <v>218</v>
       </c>
       <c r="G16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H16" t="s">
         <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K16" t="s">
         <v>218</v>
       </c>
       <c r="L16" t="s">
-        <v>521</v>
+        <v>947</v>
       </c>
       <c r="M16" t="s">
-        <v>521</v>
+        <v>920</v>
       </c>
       <c r="N16" t="s">
-        <v>521</v>
+        <v>782</v>
       </c>
       <c r="O16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Q16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="R16" t="s">
-        <v>525</v>
+        <v>956</v>
       </c>
       <c r="S16" t="s">
-        <v>525</v>
+        <v>889</v>
       </c>
       <c r="T16" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>839</v>
+      </c>
+      <c r="U16" t="s">
+        <v>671</v>
+      </c>
+      <c r="V16" t="s">
+        <v>563</v>
+      </c>
+      <c r="W16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>57</v>
       </c>
@@ -74034,58 +75055,67 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F17" t="s">
         <v>219</v>
       </c>
       <c r="G17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H17" t="s">
         <v>204</v>
       </c>
       <c r="I17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K17" t="s">
         <v>219</v>
       </c>
       <c r="L17" t="s">
-        <v>521</v>
+        <v>947</v>
       </c>
       <c r="M17" t="s">
-        <v>521</v>
+        <v>921</v>
       </c>
       <c r="N17" t="s">
-        <v>521</v>
+        <v>783</v>
       </c>
       <c r="O17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="R17" t="s">
-        <v>525</v>
+        <v>956</v>
       </c>
       <c r="S17" t="s">
-        <v>525</v>
+        <v>840</v>
       </c>
       <c r="T17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>840</v>
+      </c>
+      <c r="U17" t="s">
+        <v>671</v>
+      </c>
+      <c r="V17" t="s">
+        <v>690</v>
+      </c>
+      <c r="W17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>58</v>
       </c>
@@ -74096,16 +75126,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F18" t="s">
         <v>220</v>
       </c>
       <c r="G18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H18" t="s">
         <v>204</v>
@@ -74114,40 +75144,49 @@
         <v>220</v>
       </c>
       <c r="J18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K18" t="s">
         <v>220</v>
       </c>
       <c r="L18" t="s">
-        <v>521</v>
+        <v>948</v>
       </c>
       <c r="M18" t="s">
-        <v>521</v>
+        <v>922</v>
       </c>
       <c r="N18" t="s">
-        <v>521</v>
+        <v>784</v>
       </c>
       <c r="O18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="Q18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="R18" t="s">
-        <v>525</v>
+        <v>841</v>
       </c>
       <c r="S18" t="s">
-        <v>525</v>
+        <v>841</v>
       </c>
       <c r="T18" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+      <c r="U18" t="s">
+        <v>672</v>
+      </c>
+      <c r="V18" t="s">
+        <v>691</v>
+      </c>
+      <c r="W18" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -74158,58 +75197,67 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F19" t="s">
         <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H19" t="s">
         <v>204</v>
       </c>
       <c r="I19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K19" t="s">
         <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="M19" t="s">
-        <v>521</v>
+        <v>923</v>
       </c>
       <c r="N19" t="s">
-        <v>521</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
+        <v>572</v>
+      </c>
+      <c r="P19" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q19" t="s">
         <v>574</v>
       </c>
-      <c r="P19" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>576</v>
-      </c>
       <c r="R19" t="s">
-        <v>525</v>
+        <v>957</v>
       </c>
       <c r="S19" t="s">
-        <v>525</v>
+        <v>890</v>
       </c>
       <c r="T19" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="U19" t="s">
+        <v>673</v>
+      </c>
+      <c r="V19" t="s">
+        <v>692</v>
+      </c>
+      <c r="W19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -74220,58 +75268,67 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F20" t="s">
         <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H20" t="s">
         <v>204</v>
       </c>
       <c r="I20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K20" t="s">
         <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="M20" t="s">
-        <v>521</v>
+        <v>923</v>
       </c>
       <c r="N20" t="s">
-        <v>521</v>
+        <v>785</v>
       </c>
       <c r="O20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P20" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q20" t="s">
         <v>575</v>
       </c>
-      <c r="Q20" t="s">
-        <v>577</v>
-      </c>
       <c r="R20" t="s">
-        <v>525</v>
+        <v>957</v>
       </c>
       <c r="S20" t="s">
-        <v>525</v>
+        <v>891</v>
       </c>
       <c r="T20" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+      <c r="U20" t="s">
+        <v>673</v>
+      </c>
+      <c r="V20" t="s">
+        <v>692</v>
+      </c>
+      <c r="W20" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22</v>
       </c>
@@ -74282,58 +75339,67 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F21" t="s">
         <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H21" t="s">
         <v>204</v>
       </c>
       <c r="I21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K21" t="s">
         <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="M21" t="s">
-        <v>521</v>
+        <v>923</v>
       </c>
       <c r="N21" t="s">
-        <v>521</v>
+        <v>786</v>
       </c>
       <c r="O21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R21" t="s">
-        <v>525</v>
+        <v>957</v>
       </c>
       <c r="S21" t="s">
-        <v>525</v>
+        <v>891</v>
       </c>
       <c r="T21" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+      <c r="U21" t="s">
+        <v>673</v>
+      </c>
+      <c r="V21" t="s">
+        <v>570</v>
+      </c>
+      <c r="W21" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>23</v>
       </c>
@@ -74344,58 +75410,67 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F22" t="s">
         <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H22" t="s">
         <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K22" t="s">
         <v>180</v>
       </c>
       <c r="L22" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="M22" t="s">
-        <v>521</v>
+        <v>923</v>
       </c>
       <c r="N22" t="s">
-        <v>521</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="R22" t="s">
-        <v>525</v>
+        <v>957</v>
       </c>
       <c r="S22" t="s">
-        <v>525</v>
+        <v>891</v>
       </c>
       <c r="T22" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="U22" t="s">
+        <v>673</v>
+      </c>
+      <c r="V22" t="s">
+        <v>692</v>
+      </c>
+      <c r="W22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -74406,58 +75481,67 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F23" t="s">
         <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H23" t="s">
         <v>204</v>
       </c>
       <c r="I23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K23" t="s">
         <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="M23" t="s">
-        <v>521</v>
+        <v>924</v>
       </c>
       <c r="N23" t="s">
-        <v>521</v>
+        <v>787</v>
       </c>
       <c r="O23" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Q23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="R23" t="s">
-        <v>525</v>
+        <v>958</v>
       </c>
       <c r="S23" t="s">
-        <v>525</v>
+        <v>892</v>
       </c>
       <c r="T23" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+      <c r="U23" t="s">
+        <v>673</v>
+      </c>
+      <c r="V23" t="s">
+        <v>693</v>
+      </c>
+      <c r="W23" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -74468,58 +75552,67 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E24" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F24" t="s">
         <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H24" t="s">
         <v>204</v>
       </c>
       <c r="I24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J24" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K24" t="s">
         <v>182</v>
       </c>
       <c r="L24" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="M24" t="s">
-        <v>521</v>
+        <v>924</v>
       </c>
       <c r="N24" t="s">
-        <v>521</v>
+        <v>182</v>
       </c>
       <c r="O24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P24" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q24" t="s">
         <v>581</v>
       </c>
-      <c r="Q24" t="s">
-        <v>583</v>
-      </c>
       <c r="R24" t="s">
-        <v>525</v>
+        <v>958</v>
       </c>
       <c r="S24" t="s">
-        <v>525</v>
+        <v>892</v>
       </c>
       <c r="T24" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+      <c r="U24" t="s">
+        <v>673</v>
+      </c>
+      <c r="V24" t="s">
+        <v>578</v>
+      </c>
+      <c r="W24" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26</v>
       </c>
@@ -74530,58 +75623,67 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F25" t="s">
         <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H25" t="s">
         <v>204</v>
       </c>
       <c r="I25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K25" t="s">
         <v>183</v>
       </c>
       <c r="L25" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="M25" t="s">
-        <v>521</v>
+        <v>925</v>
       </c>
       <c r="N25" t="s">
-        <v>521</v>
+        <v>788</v>
       </c>
       <c r="O25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Q25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="R25" t="s">
-        <v>525</v>
+        <v>958</v>
       </c>
       <c r="S25" t="s">
-        <v>525</v>
+        <v>892</v>
       </c>
       <c r="T25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+      <c r="U25" t="s">
+        <v>673</v>
+      </c>
+      <c r="V25" t="s">
+        <v>578</v>
+      </c>
+      <c r="W25" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>30</v>
       </c>
@@ -74592,58 +75694,67 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F26" t="s">
         <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H26" t="s">
         <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K26" t="s">
         <v>187</v>
       </c>
       <c r="L26" t="s">
-        <v>521</v>
+        <v>949</v>
       </c>
       <c r="M26" t="s">
-        <v>521</v>
+        <v>926</v>
       </c>
       <c r="N26" t="s">
-        <v>521</v>
+        <v>789</v>
       </c>
       <c r="O26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P26" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Q26" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="R26" t="s">
-        <v>525</v>
+        <v>957</v>
       </c>
       <c r="S26" t="s">
-        <v>525</v>
+        <v>893</v>
       </c>
       <c r="T26" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>847</v>
+      </c>
+      <c r="U26" t="s">
+        <v>673</v>
+      </c>
+      <c r="V26" t="s">
+        <v>583</v>
+      </c>
+      <c r="W26" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>14</v>
       </c>
@@ -74654,58 +75765,67 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F27" t="s">
         <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H27" t="s">
         <v>204</v>
       </c>
       <c r="I27" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J27" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K27" t="s">
         <v>170</v>
       </c>
       <c r="L27" t="s">
-        <v>521</v>
+        <v>928</v>
       </c>
       <c r="M27" t="s">
-        <v>521</v>
+        <v>927</v>
       </c>
       <c r="N27" t="s">
-        <v>521</v>
+        <v>790</v>
       </c>
       <c r="O27" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="P27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Q27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="R27" t="s">
-        <v>525</v>
+        <v>959</v>
       </c>
       <c r="S27" t="s">
-        <v>525</v>
+        <v>894</v>
       </c>
       <c r="T27" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+      <c r="U27" t="s">
+        <v>674</v>
+      </c>
+      <c r="V27" t="s">
+        <v>694</v>
+      </c>
+      <c r="W27" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>15</v>
       </c>
@@ -74716,58 +75836,67 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E28" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
       </c>
       <c r="G28" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H28" t="s">
         <v>204</v>
       </c>
       <c r="I28" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J28" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K28" t="s">
         <v>171</v>
       </c>
       <c r="L28" t="s">
-        <v>521</v>
+        <v>928</v>
       </c>
       <c r="M28" t="s">
-        <v>521</v>
+        <v>928</v>
       </c>
       <c r="N28" t="s">
-        <v>521</v>
+        <v>791</v>
       </c>
       <c r="O28" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="P28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Q28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="R28" t="s">
-        <v>525</v>
+        <v>960</v>
       </c>
       <c r="S28" t="s">
-        <v>525</v>
+        <v>895</v>
       </c>
       <c r="T28" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+      <c r="U28" t="s">
+        <v>674</v>
+      </c>
+      <c r="V28" t="s">
+        <v>695</v>
+      </c>
+      <c r="W28" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -74787,7 +75916,7 @@
         <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H29" t="s">
         <v>204</v>
@@ -74796,40 +75925,49 @@
         <v>204</v>
       </c>
       <c r="J29" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K29" t="s">
         <v>168</v>
       </c>
       <c r="L29" t="s">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="M29" t="s">
-        <v>521</v>
+        <v>929</v>
       </c>
       <c r="N29" t="s">
-        <v>521</v>
+        <v>792</v>
       </c>
       <c r="O29" t="s">
         <v>204</v>
       </c>
       <c r="P29" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Q29" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="R29" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="S29" t="s">
-        <v>525</v>
+        <v>896</v>
       </c>
       <c r="T29" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+      <c r="U29" t="s">
+        <v>204</v>
+      </c>
+      <c r="V29" t="s">
+        <v>696</v>
+      </c>
+      <c r="W29" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
@@ -74849,7 +75987,7 @@
         <v>169</v>
       </c>
       <c r="G30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H30" t="s">
         <v>204</v>
@@ -74858,40 +75996,49 @@
         <v>204</v>
       </c>
       <c r="J30" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K30" t="s">
         <v>169</v>
       </c>
       <c r="L30" t="s">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="M30" t="s">
-        <v>521</v>
+        <v>930</v>
       </c>
       <c r="N30" t="s">
-        <v>521</v>
+        <v>793</v>
       </c>
       <c r="O30" t="s">
         <v>204</v>
       </c>
       <c r="P30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Q30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="R30" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="S30" t="s">
-        <v>525</v>
+        <v>896</v>
       </c>
       <c r="T30" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+      <c r="U30" t="s">
+        <v>204</v>
+      </c>
+      <c r="V30" t="s">
+        <v>697</v>
+      </c>
+      <c r="W30" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>17</v>
       </c>
@@ -74911,7 +76058,7 @@
         <v>174</v>
       </c>
       <c r="G31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H31" t="s">
         <v>204</v>
@@ -74920,40 +76067,49 @@
         <v>204</v>
       </c>
       <c r="J31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K31" t="s">
         <v>174</v>
       </c>
       <c r="L31" t="s">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="M31" t="s">
-        <v>521</v>
+        <v>931</v>
       </c>
       <c r="N31" t="s">
-        <v>521</v>
+        <v>794</v>
       </c>
       <c r="O31" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="Q31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="R31" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="S31" t="s">
-        <v>525</v>
+        <v>897</v>
       </c>
       <c r="T31" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>852</v>
+      </c>
+      <c r="U31" t="s">
+        <v>204</v>
+      </c>
+      <c r="V31" t="s">
+        <v>698</v>
+      </c>
+      <c r="W31" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>18</v>
       </c>
@@ -74973,7 +76129,7 @@
         <v>175</v>
       </c>
       <c r="G32" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H32" t="s">
         <v>204</v>
@@ -74982,40 +76138,49 @@
         <v>204</v>
       </c>
       <c r="J32" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K32" t="s">
         <v>175</v>
       </c>
       <c r="L32" t="s">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s">
-        <v>521</v>
+        <v>931</v>
       </c>
       <c r="N32" t="s">
-        <v>521</v>
+        <v>795</v>
       </c>
       <c r="O32" t="s">
+        <v>597</v>
+      </c>
+      <c r="P32" t="s">
         <v>599</v>
       </c>
-      <c r="P32" t="s">
-        <v>601</v>
-      </c>
       <c r="Q32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="R32" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="S32" t="s">
-        <v>525</v>
+        <v>897</v>
       </c>
       <c r="T32" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+      <c r="U32" t="s">
+        <v>204</v>
+      </c>
+      <c r="V32" t="s">
+        <v>698</v>
+      </c>
+      <c r="W32" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>19</v>
       </c>
@@ -75035,7 +76200,7 @@
         <v>176</v>
       </c>
       <c r="G33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H33" t="s">
         <v>204</v>
@@ -75044,40 +76209,49 @@
         <v>204</v>
       </c>
       <c r="J33" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K33" t="s">
         <v>176</v>
       </c>
       <c r="L33" t="s">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="M33" t="s">
-        <v>521</v>
+        <v>931</v>
       </c>
       <c r="N33" t="s">
-        <v>521</v>
+        <v>796</v>
       </c>
       <c r="O33" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="P33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="R33" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="S33" t="s">
-        <v>525</v>
+        <v>897</v>
       </c>
       <c r="T33" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+      <c r="U33" t="s">
+        <v>204</v>
+      </c>
+      <c r="V33" t="s">
+        <v>698</v>
+      </c>
+      <c r="W33" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>44</v>
       </c>
@@ -75097,7 +76271,7 @@
         <v>203</v>
       </c>
       <c r="G34" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H34" t="s">
         <v>204</v>
@@ -75112,34 +76286,43 @@
         <v>203</v>
       </c>
       <c r="L34" t="s">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="M34" t="s">
-        <v>521</v>
+        <v>797</v>
       </c>
       <c r="N34" t="s">
-        <v>521</v>
+        <v>797</v>
       </c>
       <c r="O34" t="s">
         <v>204</v>
       </c>
       <c r="P34" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Q34" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="R34" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="S34" t="s">
-        <v>525</v>
+        <v>898</v>
       </c>
       <c r="T34" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+      <c r="U34" t="s">
+        <v>204</v>
+      </c>
+      <c r="V34" t="s">
+        <v>699</v>
+      </c>
+      <c r="W34" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>60</v>
       </c>
@@ -75159,7 +76342,7 @@
         <v>223</v>
       </c>
       <c r="G35" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H35" t="s">
         <v>204</v>
@@ -75174,34 +76357,43 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="M35" t="s">
-        <v>521</v>
+        <v>932</v>
       </c>
       <c r="N35" t="s">
-        <v>521</v>
+        <v>798</v>
       </c>
       <c r="O35" t="s">
         <v>204</v>
       </c>
       <c r="P35" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="Q35" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="R35" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="S35" t="s">
-        <v>525</v>
+        <v>899</v>
       </c>
       <c r="T35" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+      <c r="U35" t="s">
+        <v>204</v>
+      </c>
+      <c r="V35" t="s">
+        <v>700</v>
+      </c>
+      <c r="W35" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>61</v>
       </c>
@@ -75221,7 +76413,7 @@
         <v>224</v>
       </c>
       <c r="G36" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H36" t="s">
         <v>204</v>
@@ -75236,804 +76428,921 @@
         <v>224</v>
       </c>
       <c r="L36" t="s">
-        <v>521</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s">
-        <v>521</v>
+        <v>799</v>
       </c>
       <c r="N36" t="s">
-        <v>521</v>
+        <v>799</v>
       </c>
       <c r="O36" t="s">
         <v>204</v>
       </c>
       <c r="P36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="Q36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="R36" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="S36" t="s">
-        <v>525</v>
+        <v>857</v>
       </c>
       <c r="T36" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+      <c r="U36" t="s">
+        <v>204</v>
+      </c>
+      <c r="V36" t="s">
+        <v>701</v>
+      </c>
+      <c r="W36" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E37" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H37" t="s">
         <v>204</v>
       </c>
       <c r="I37" t="s">
+        <v>608</v>
+      </c>
+      <c r="J37" t="s">
+        <v>609</v>
+      </c>
+      <c r="K37" t="s">
         <v>610</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
+        <v>950</v>
+      </c>
+      <c r="M37" t="s">
+        <v>933</v>
+      </c>
+      <c r="N37" t="s">
+        <v>800</v>
+      </c>
+      <c r="O37" t="s">
         <v>611</v>
       </c>
-      <c r="K37" t="s">
+      <c r="P37" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q37" t="s">
         <v>612</v>
       </c>
-      <c r="L37" t="s">
-        <v>521</v>
-      </c>
-      <c r="M37" t="s">
-        <v>521</v>
-      </c>
-      <c r="N37" t="s">
-        <v>521</v>
-      </c>
-      <c r="O37" t="s">
-        <v>613</v>
-      </c>
-      <c r="P37" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>614</v>
-      </c>
       <c r="R37" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S37" t="s">
-        <v>525</v>
+        <v>900</v>
       </c>
       <c r="T37" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+      <c r="U37" t="s">
+        <v>675</v>
+      </c>
+      <c r="V37" t="s">
+        <v>702</v>
+      </c>
+      <c r="W37" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E38" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F38" t="s">
         <v>157</v>
       </c>
       <c r="G38" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H38" t="s">
         <v>204</v>
       </c>
       <c r="I38" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J38" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K38" t="s">
         <v>157</v>
       </c>
       <c r="L38" t="s">
-        <v>521</v>
+        <v>950</v>
       </c>
       <c r="M38" t="s">
-        <v>521</v>
+        <v>933</v>
       </c>
       <c r="N38" t="s">
-        <v>521</v>
+        <v>801</v>
       </c>
       <c r="O38" t="s">
+        <v>611</v>
+      </c>
+      <c r="P38" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q38" t="s">
         <v>613</v>
       </c>
-      <c r="P38" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>615</v>
-      </c>
       <c r="R38" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S38" t="s">
-        <v>525</v>
+        <v>900</v>
       </c>
       <c r="T38" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+      <c r="U38" t="s">
+        <v>675</v>
+      </c>
+      <c r="V38" t="s">
+        <v>702</v>
+      </c>
+      <c r="W38" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E39" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F39" t="s">
         <v>158</v>
       </c>
       <c r="G39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H39" t="s">
         <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J39" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K39" t="s">
         <v>158</v>
       </c>
       <c r="L39" t="s">
-        <v>521</v>
+        <v>950</v>
       </c>
       <c r="M39" t="s">
-        <v>521</v>
+        <v>933</v>
       </c>
       <c r="N39" t="s">
-        <v>521</v>
+        <v>802</v>
       </c>
       <c r="O39" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P39" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Q39" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R39" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S39" t="s">
-        <v>525</v>
+        <v>900</v>
       </c>
       <c r="T39" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+      <c r="U39" t="s">
+        <v>675</v>
+      </c>
+      <c r="V39" t="s">
+        <v>702</v>
+      </c>
+      <c r="W39" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E40" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F40" t="s">
         <v>159</v>
       </c>
       <c r="G40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H40" t="s">
         <v>204</v>
       </c>
       <c r="I40" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J40" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K40" t="s">
         <v>159</v>
       </c>
       <c r="L40" t="s">
-        <v>521</v>
+        <v>950</v>
       </c>
       <c r="M40" t="s">
-        <v>521</v>
+        <v>933</v>
       </c>
       <c r="N40" t="s">
-        <v>521</v>
+        <v>803</v>
       </c>
       <c r="O40" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P40" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Q40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="R40" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S40" t="s">
-        <v>525</v>
+        <v>901</v>
       </c>
       <c r="T40" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+      <c r="U40" t="s">
+        <v>675</v>
+      </c>
+      <c r="V40" t="s">
+        <v>702</v>
+      </c>
+      <c r="W40" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E41" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F41" t="s">
         <v>160</v>
       </c>
       <c r="G41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H41" t="s">
         <v>204</v>
       </c>
       <c r="I41" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J41" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K41" t="s">
         <v>160</v>
       </c>
       <c r="L41" t="s">
-        <v>521</v>
+        <v>951</v>
       </c>
       <c r="M41" t="s">
-        <v>521</v>
+        <v>933</v>
       </c>
       <c r="N41" t="s">
-        <v>521</v>
+        <v>804</v>
       </c>
       <c r="O41" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P41" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Q41" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="R41" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S41" t="s">
-        <v>525</v>
+        <v>901</v>
       </c>
       <c r="T41" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="U41" t="s">
+        <v>675</v>
+      </c>
+      <c r="V41" t="s">
+        <v>702</v>
+      </c>
+      <c r="W41" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E42" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F42" t="s">
         <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H42" t="s">
         <v>204</v>
       </c>
       <c r="I42" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J42" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K42" t="s">
         <v>161</v>
       </c>
       <c r="L42" t="s">
-        <v>521</v>
+        <v>951</v>
       </c>
       <c r="M42" t="s">
-        <v>521</v>
+        <v>934</v>
       </c>
       <c r="N42" t="s">
-        <v>521</v>
+        <v>805</v>
       </c>
       <c r="O42" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P42" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="Q42" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R42" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S42" t="s">
-        <v>525</v>
+        <v>902</v>
       </c>
       <c r="T42" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+      <c r="U42" t="s">
+        <v>675</v>
+      </c>
+      <c r="V42" t="s">
+        <v>703</v>
+      </c>
+      <c r="W42" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E43" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F43" t="s">
         <v>162</v>
       </c>
       <c r="G43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H43" t="s">
         <v>204</v>
       </c>
       <c r="I43" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J43" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K43" t="s">
         <v>162</v>
       </c>
       <c r="L43" t="s">
-        <v>521</v>
+        <v>951</v>
       </c>
       <c r="M43" t="s">
-        <v>521</v>
+        <v>934</v>
       </c>
       <c r="N43" t="s">
-        <v>521</v>
+        <v>806</v>
       </c>
       <c r="O43" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P43" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q43" t="s">
         <v>621</v>
       </c>
-      <c r="Q43" t="s">
-        <v>623</v>
-      </c>
       <c r="R43" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S43" t="s">
-        <v>525</v>
+        <v>902</v>
       </c>
       <c r="T43" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+        <v>862</v>
+      </c>
+      <c r="U43" t="s">
+        <v>675</v>
+      </c>
+      <c r="V43" t="s">
+        <v>703</v>
+      </c>
+      <c r="W43" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E44" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F44" t="s">
         <v>163</v>
       </c>
       <c r="G44" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H44" t="s">
         <v>204</v>
       </c>
       <c r="I44" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J44" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K44" t="s">
         <v>163</v>
       </c>
       <c r="L44" t="s">
-        <v>521</v>
+        <v>951</v>
       </c>
       <c r="M44" t="s">
-        <v>521</v>
+        <v>934</v>
       </c>
       <c r="N44" t="s">
-        <v>521</v>
+        <v>807</v>
       </c>
       <c r="O44" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P44" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="Q44" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="R44" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S44" t="s">
-        <v>525</v>
+        <v>902</v>
       </c>
       <c r="T44" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+      <c r="U44" t="s">
+        <v>675</v>
+      </c>
+      <c r="V44" t="s">
+        <v>703</v>
+      </c>
+      <c r="W44" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F45" t="s">
         <v>164</v>
       </c>
       <c r="G45" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H45" t="s">
         <v>204</v>
       </c>
       <c r="I45" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K45" t="s">
         <v>164</v>
       </c>
       <c r="L45" t="s">
-        <v>521</v>
+        <v>951</v>
       </c>
       <c r="M45" t="s">
-        <v>521</v>
+        <v>623</v>
       </c>
       <c r="N45" t="s">
-        <v>521</v>
+        <v>808</v>
       </c>
       <c r="O45" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q45" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="R45" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S45" t="s">
-        <v>525</v>
+        <v>903</v>
       </c>
       <c r="T45" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+      <c r="U45" t="s">
+        <v>675</v>
+      </c>
+      <c r="V45" t="s">
+        <v>623</v>
+      </c>
+      <c r="W45" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E46" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F46" t="s">
         <v>165</v>
       </c>
       <c r="G46" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H46" t="s">
         <v>204</v>
       </c>
       <c r="I46" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J46" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K46" t="s">
         <v>165</v>
       </c>
       <c r="L46" t="s">
-        <v>521</v>
+        <v>951</v>
       </c>
       <c r="M46" t="s">
-        <v>521</v>
+        <v>623</v>
       </c>
       <c r="N46" t="s">
-        <v>521</v>
+        <v>809</v>
       </c>
       <c r="O46" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P46" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q46" t="s">
         <v>625</v>
       </c>
-      <c r="Q46" t="s">
-        <v>627</v>
-      </c>
       <c r="R46" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S46" t="s">
-        <v>525</v>
+        <v>903</v>
       </c>
       <c r="T46" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+      <c r="U46" t="s">
+        <v>675</v>
+      </c>
+      <c r="V46" t="s">
+        <v>623</v>
+      </c>
+      <c r="W46" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E47" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F47" t="s">
         <v>166</v>
       </c>
       <c r="G47" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H47" t="s">
         <v>204</v>
       </c>
       <c r="I47" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J47" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K47" t="s">
         <v>166</v>
       </c>
       <c r="L47" t="s">
-        <v>521</v>
+        <v>951</v>
       </c>
       <c r="M47" t="s">
-        <v>521</v>
+        <v>623</v>
       </c>
       <c r="N47" t="s">
-        <v>521</v>
+        <v>810</v>
       </c>
       <c r="O47" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P47" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="Q47" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="R47" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S47" t="s">
-        <v>525</v>
+        <v>903</v>
       </c>
       <c r="T47" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+      <c r="U47" t="s">
+        <v>675</v>
+      </c>
+      <c r="V47" t="s">
+        <v>623</v>
+      </c>
+      <c r="W47" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E48" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F48" t="s">
         <v>172</v>
       </c>
       <c r="G48" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H48" t="s">
         <v>204</v>
       </c>
       <c r="I48" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J48" t="s">
+        <v>627</v>
+      </c>
+      <c r="K48" t="s">
+        <v>628</v>
+      </c>
+      <c r="L48" t="s">
+        <v>950</v>
+      </c>
+      <c r="M48" t="s">
+        <v>935</v>
+      </c>
+      <c r="N48" t="s">
+        <v>811</v>
+      </c>
+      <c r="O48" t="s">
+        <v>611</v>
+      </c>
+      <c r="P48" t="s">
         <v>629</v>
       </c>
-      <c r="K48" t="s">
+      <c r="Q48" t="s">
         <v>630</v>
       </c>
-      <c r="L48" t="s">
-        <v>521</v>
-      </c>
-      <c r="M48" t="s">
-        <v>521</v>
-      </c>
-      <c r="N48" t="s">
-        <v>521</v>
-      </c>
-      <c r="O48" t="s">
-        <v>613</v>
-      </c>
-      <c r="P48" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>632</v>
-      </c>
       <c r="R48" t="s">
-        <v>525</v>
+        <v>961</v>
       </c>
       <c r="S48" t="s">
-        <v>525</v>
+        <v>904</v>
       </c>
       <c r="T48" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+      <c r="U48" t="s">
+        <v>675</v>
+      </c>
+      <c r="V48" t="s">
+        <v>704</v>
+      </c>
+      <c r="W48" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E49" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F49" t="s">
         <v>192</v>
       </c>
       <c r="G49" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H49" t="s">
         <v>204</v>
       </c>
       <c r="I49" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J49" t="s">
         <v>192</v>
@@ -76042,60 +77351,69 @@
         <v>192</v>
       </c>
       <c r="L49" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M49" t="s">
-        <v>521</v>
+        <v>812</v>
       </c>
       <c r="N49" t="s">
-        <v>521</v>
+        <v>812</v>
       </c>
       <c r="O49" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P49" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="Q49" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="R49" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S49" t="s">
-        <v>525</v>
+        <v>868</v>
       </c>
       <c r="T49" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+      <c r="U49" t="s">
+        <v>676</v>
+      </c>
+      <c r="V49" t="s">
+        <v>705</v>
+      </c>
+      <c r="W49" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E50" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F50" t="s">
         <v>194</v>
       </c>
       <c r="G50" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H50" t="s">
         <v>204</v>
       </c>
       <c r="I50" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J50" t="s">
         <v>194</v>
@@ -76104,231 +77422,267 @@
         <v>194</v>
       </c>
       <c r="L50" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M50" t="s">
-        <v>521</v>
+        <v>813</v>
       </c>
       <c r="N50" t="s">
-        <v>521</v>
+        <v>813</v>
       </c>
       <c r="O50" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P50" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="Q50" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="R50" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S50" t="s">
-        <v>525</v>
+        <v>869</v>
       </c>
       <c r="T50" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+      <c r="U50" t="s">
+        <v>676</v>
+      </c>
+      <c r="V50" t="s">
+        <v>706</v>
+      </c>
+      <c r="W50" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C51">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E51" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F51" t="s">
         <v>184</v>
       </c>
       <c r="G51" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H51" t="s">
         <v>204</v>
       </c>
       <c r="I51" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J51" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K51" t="s">
         <v>184</v>
       </c>
       <c r="L51" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M51" t="s">
-        <v>521</v>
+        <v>936</v>
       </c>
       <c r="N51" t="s">
-        <v>521</v>
+        <v>814</v>
       </c>
       <c r="O51" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P51" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Q51" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="R51" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S51" t="s">
-        <v>525</v>
+        <v>905</v>
       </c>
       <c r="T51" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+      <c r="U51" t="s">
+        <v>676</v>
+      </c>
+      <c r="V51" t="s">
+        <v>707</v>
+      </c>
+      <c r="W51" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E52" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F52" t="s">
         <v>185</v>
       </c>
       <c r="G52" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H52" t="s">
         <v>204</v>
       </c>
       <c r="I52" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J52" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K52" t="s">
         <v>185</v>
       </c>
       <c r="L52" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M52" t="s">
-        <v>521</v>
+        <v>936</v>
       </c>
       <c r="N52" t="s">
-        <v>521</v>
+        <v>815</v>
       </c>
       <c r="O52" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P52" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q52" t="s">
         <v>642</v>
       </c>
-      <c r="Q52" t="s">
-        <v>644</v>
-      </c>
       <c r="R52" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S52" t="s">
-        <v>525</v>
+        <v>905</v>
       </c>
       <c r="T52" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="U52" t="s">
+        <v>676</v>
+      </c>
+      <c r="V52" t="s">
+        <v>707</v>
+      </c>
+      <c r="W52" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C53">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E53" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F53" t="s">
         <v>186</v>
       </c>
       <c r="G53" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H53" t="s">
         <v>204</v>
       </c>
       <c r="I53" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J53" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K53" t="s">
         <v>186</v>
       </c>
       <c r="L53" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M53" t="s">
-        <v>521</v>
+        <v>936</v>
       </c>
       <c r="N53" t="s">
-        <v>521</v>
+        <v>816</v>
       </c>
       <c r="O53" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P53" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Q53" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="R53" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S53" t="s">
-        <v>525</v>
+        <v>905</v>
       </c>
       <c r="T53" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+      <c r="U53" t="s">
+        <v>676</v>
+      </c>
+      <c r="V53" t="s">
+        <v>707</v>
+      </c>
+      <c r="W53" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E54" t="s">
         <v>189</v>
@@ -76337,60 +77691,69 @@
         <v>189</v>
       </c>
       <c r="G54" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H54" t="s">
         <v>204</v>
       </c>
       <c r="I54" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J54" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K54" t="s">
         <v>189</v>
       </c>
       <c r="L54" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M54" t="s">
-        <v>521</v>
+        <v>937</v>
       </c>
       <c r="N54" t="s">
-        <v>521</v>
+        <v>817</v>
       </c>
       <c r="O54" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P54" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q54" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="R54" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S54" t="s">
-        <v>525</v>
+        <v>906</v>
       </c>
       <c r="T54" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+      <c r="U54" t="s">
+        <v>676</v>
+      </c>
+      <c r="V54" t="s">
+        <v>708</v>
+      </c>
+      <c r="W54" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C55">
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E55" t="s">
         <v>190</v>
@@ -76399,60 +77762,69 @@
         <v>190</v>
       </c>
       <c r="G55" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H55" t="s">
         <v>204</v>
       </c>
       <c r="I55" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J55" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K55" t="s">
         <v>190</v>
       </c>
       <c r="L55" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M55" t="s">
-        <v>521</v>
+        <v>938</v>
       </c>
       <c r="N55" t="s">
-        <v>521</v>
+        <v>818</v>
       </c>
       <c r="O55" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P55" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q55" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="R55" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S55" t="s">
-        <v>525</v>
+        <v>907</v>
       </c>
       <c r="T55" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+      <c r="U55" t="s">
+        <v>676</v>
+      </c>
+      <c r="V55" t="s">
+        <v>709</v>
+      </c>
+      <c r="W55" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E56" t="s">
         <v>191</v>
@@ -76461,60 +77833,69 @@
         <v>191</v>
       </c>
       <c r="G56" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H56" t="s">
         <v>204</v>
       </c>
       <c r="I56" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J56" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K56" t="s">
         <v>191</v>
       </c>
       <c r="L56" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M56" t="s">
-        <v>521</v>
+        <v>939</v>
       </c>
       <c r="N56" t="s">
-        <v>521</v>
+        <v>819</v>
       </c>
       <c r="O56" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P56" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Q56" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="R56" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S56" t="s">
-        <v>525</v>
+        <v>908</v>
       </c>
       <c r="T56" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+      <c r="U56" t="s">
+        <v>676</v>
+      </c>
+      <c r="V56" t="s">
+        <v>710</v>
+      </c>
+      <c r="W56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C57">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E57" t="s">
         <v>193</v>
@@ -76523,13 +77904,13 @@
         <v>193</v>
       </c>
       <c r="G57" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H57" t="s">
         <v>204</v>
       </c>
       <c r="I57" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J57" t="s">
         <v>193</v>
@@ -76538,45 +77919,54 @@
         <v>193</v>
       </c>
       <c r="L57" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M57" t="s">
-        <v>521</v>
+        <v>820</v>
       </c>
       <c r="N57" t="s">
-        <v>521</v>
+        <v>820</v>
       </c>
       <c r="O57" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Q57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="R57" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S57" t="s">
-        <v>525</v>
+        <v>875</v>
       </c>
       <c r="T57" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+      <c r="U57" t="s">
+        <v>676</v>
+      </c>
+      <c r="V57" t="s">
+        <v>711</v>
+      </c>
+      <c r="W57" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C58">
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E58" t="s">
         <v>195</v>
@@ -76585,60 +77975,69 @@
         <v>195</v>
       </c>
       <c r="G58" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H58" t="s">
         <v>204</v>
       </c>
       <c r="I58" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J58" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K58" t="s">
         <v>195</v>
       </c>
       <c r="L58" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M58" t="s">
-        <v>521</v>
+        <v>940</v>
       </c>
       <c r="N58" t="s">
-        <v>521</v>
+        <v>821</v>
       </c>
       <c r="O58" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P58" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Q58" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="R58" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S58" t="s">
-        <v>525</v>
+        <v>909</v>
       </c>
       <c r="T58" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+      <c r="U58" t="s">
+        <v>676</v>
+      </c>
+      <c r="V58" t="s">
+        <v>712</v>
+      </c>
+      <c r="W58" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C59">
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E59" t="s">
         <v>196</v>
@@ -76647,60 +78046,69 @@
         <v>196</v>
       </c>
       <c r="G59" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H59" t="s">
         <v>204</v>
       </c>
       <c r="I59" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J59" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K59" t="s">
         <v>196</v>
       </c>
       <c r="L59" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M59" t="s">
-        <v>521</v>
+        <v>941</v>
       </c>
       <c r="N59" t="s">
-        <v>521</v>
+        <v>822</v>
       </c>
       <c r="O59" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P59" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Q59" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="R59" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S59" t="s">
-        <v>525</v>
+        <v>910</v>
       </c>
       <c r="T59" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+      <c r="U59" t="s">
+        <v>676</v>
+      </c>
+      <c r="V59" t="s">
+        <v>713</v>
+      </c>
+      <c r="W59" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C60">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E60" t="s">
         <v>197</v>
@@ -76709,170 +78117,197 @@
         <v>197</v>
       </c>
       <c r="G60" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H60" t="s">
         <v>204</v>
       </c>
       <c r="I60" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J60" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K60" t="s">
         <v>197</v>
       </c>
       <c r="L60" t="s">
-        <v>521</v>
+        <v>952</v>
       </c>
       <c r="M60" t="s">
-        <v>521</v>
+        <v>942</v>
       </c>
       <c r="N60" t="s">
-        <v>521</v>
+        <v>823</v>
       </c>
       <c r="O60" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P60" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="Q60" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="R60" t="s">
-        <v>525</v>
+        <v>676</v>
       </c>
       <c r="S60" t="s">
-        <v>525</v>
+        <v>911</v>
       </c>
       <c r="T60" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+      <c r="U60" t="s">
+        <v>676</v>
+      </c>
+      <c r="V60" t="s">
+        <v>714</v>
+      </c>
+      <c r="W60" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C61">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E61" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F61" t="s">
         <v>205</v>
       </c>
       <c r="G61" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H61" t="s">
         <v>204</v>
       </c>
       <c r="I61" t="s">
+        <v>659</v>
+      </c>
+      <c r="J61" t="s">
+        <v>660</v>
+      </c>
+      <c r="K61" t="s">
         <v>661</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
+        <v>953</v>
+      </c>
+      <c r="M61" t="s">
+        <v>660</v>
+      </c>
+      <c r="N61" t="s">
+        <v>824</v>
+      </c>
+      <c r="O61" t="s">
         <v>662</v>
       </c>
-      <c r="K61" t="s">
+      <c r="P61" t="s">
         <v>663</v>
       </c>
-      <c r="L61" t="s">
-        <v>521</v>
-      </c>
-      <c r="M61" t="s">
-        <v>521</v>
-      </c>
-      <c r="N61" t="s">
-        <v>521</v>
-      </c>
-      <c r="O61" t="s">
-        <v>664</v>
-      </c>
-      <c r="P61" t="s">
-        <v>665</v>
-      </c>
       <c r="Q61" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R61" t="s">
-        <v>525</v>
+        <v>962</v>
       </c>
       <c r="S61" t="s">
-        <v>525</v>
+        <v>912</v>
       </c>
       <c r="T61" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+      <c r="U61" t="s">
+        <v>677</v>
+      </c>
+      <c r="V61" t="s">
+        <v>715</v>
+      </c>
+      <c r="W61" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C62">
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E62" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F62" t="s">
         <v>222</v>
       </c>
       <c r="G62" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H62" t="s">
         <v>204</v>
       </c>
       <c r="I62" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J62" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K62" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L62" t="s">
-        <v>521</v>
+        <v>953</v>
       </c>
       <c r="M62" t="s">
-        <v>521</v>
+        <v>825</v>
       </c>
       <c r="N62" t="s">
-        <v>521</v>
+        <v>825</v>
       </c>
       <c r="O62" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="P62" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Q62" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="R62" t="s">
-        <v>525</v>
+        <v>962</v>
       </c>
       <c r="S62" t="s">
-        <v>525</v>
+        <v>880</v>
       </c>
       <c r="T62" t="s">
-        <v>525</v>
+        <v>880</v>
+      </c>
+      <c r="U62" t="s">
+        <v>677</v>
+      </c>
+      <c r="V62" t="s">
+        <v>716</v>
+      </c>
+      <c r="W62" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
